--- a/Result/ResultFinal.xlsx
+++ b/Result/ResultFinal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t xml:space="preserve">Pavadinimas</t>
   </si>
@@ -133,10 +133,28 @@
     <t xml:space="preserve">iq</t>
   </si>
   <si>
+    <t xml:space="preserve">Normalusis</t>
+  </si>
+  <si>
     <t xml:space="preserve">year</t>
   </si>
   <si>
     <t xml:space="preserve">Tolyginiai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puasono skirstinys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eksponentinis augimas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atributu palyginimas: Kvantlis pirmas, Kvantilis trecias ir mediana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atributu palyginimas: Truksta, kardinalumas, minimalus</t>
   </si>
 </sst>
 </file>
@@ -146,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -175,6 +193,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -182,7 +201,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -232,7 +256,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -242,6 +266,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,9 +335,9 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF004586"/>
@@ -317,7 +353,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -351,6 +387,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -414,11 +452,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="96840357"/>
-        <c:axId val="53886079"/>
+        <c:axId val="28871118"/>
+        <c:axId val="62985039"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96840357"/>
+        <c:axId val="28871118"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -446,14 +484,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53886079"/>
+        <c:crossAx val="62985039"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53886079"/>
+        <c:axId val="62985039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,7 +506,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -490,7 +528,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96840357"/>
+        <c:crossAx val="28871118"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -537,7 +575,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -552,11 +590,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$J$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Moda 1 %</c:v>
+                  <c:v>vidurkis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -571,6 +609,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -580,53 +620,95 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$10:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>mrt</c:v>
+                  <c:v>tenure</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>smsa</c:v>
+                  <c:v>med</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>rns80</c:v>
+                  <c:v>tenure80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>smsa80</c:v>
+                  <c:v>expr</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>rns</c:v>
+                  <c:v>expr80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mrt80</c:v>
+                  <c:v>lw</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>school</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>school80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>kww</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>age</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>age80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>iq</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>year</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$7</c:f>
+              <c:f>Sheet1!$J$10:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>1.8311345646438</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>10.910290237467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71</c:v>
+                  <c:v>7.36279683377309</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71</c:v>
+                  <c:v>1.73542875989446</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73</c:v>
+                  <c:v>11.3942612137203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>5.68673878627969</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.4050131926121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.7071240105541</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.5738786279683</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.835092348285</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.0118733509235</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103.856200527705</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.0316622691293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,11 +716,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="84132410"/>
-        <c:axId val="17741934"/>
+        <c:axId val="65161347"/>
+        <c:axId val="28588094"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84132410"/>
+        <c:axId val="65161347"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,14 +748,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17741934"/>
+        <c:crossAx val="28588094"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17741934"/>
+        <c:axId val="28588094"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +770,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -710,7 +792,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84132410"/>
+        <c:crossAx val="65161347"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -757,7 +839,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -772,11 +854,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$F$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Modos 2 daznis</c:v>
+                  <c:v>max</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -800,53 +882,95 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$10:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>mrt</c:v>
+                  <c:v>tenure</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>smsa</c:v>
+                  <c:v>med</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>rns80</c:v>
+                  <c:v>tenure80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>smsa80</c:v>
+                  <c:v>expr</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>rns</c:v>
+                  <c:v>expr80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>mrt80</c:v>
+                  <c:v>lw</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>school</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>school80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>kww</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>age</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>age80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>iq</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>year</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$7</c:f>
+              <c:f>Sheet1!$F$10:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>368</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>222</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>218</c:v>
+                  <c:v>11.444</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>204</c:v>
+                  <c:v>22.045</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77</c:v>
+                  <c:v>7.051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -854,11 +978,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="15506777"/>
-        <c:axId val="9834157"/>
+        <c:axId val="35961861"/>
+        <c:axId val="74693908"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15506777"/>
+        <c:axId val="35961861"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,14 +1010,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9834157"/>
+        <c:crossAx val="74693908"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9834157"/>
+        <c:axId val="74693908"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +1054,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15506777"/>
+        <c:crossAx val="35961861"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -977,26 +1101,25 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$G$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Moda 2 %</c:v>
+                  <c:v>kvantilis pirmas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1005,11 +1128,19 @@
             <a:solidFill>
               <a:srgbClr val="004586"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="28800">
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1018,67 +1149,239 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:cat>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$10:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.392</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$H$9</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mrt</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>smsa</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>rns80</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>smsa80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>rns</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>mrt80</c:v>
+                  <c:v>kvantilis trecias</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$7</c:f>
+              <c:f>Sheet1!$H$10:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>2.442</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>14.677</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>5.991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="93225008"/>
-        <c:axId val="98802722"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="93225008"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mediana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$10:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.684</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="54357118"/>
+        <c:axId val="12640967"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="54357118"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,14 +1409,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98802722"/>
+        <c:crossAx val="12640967"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="98802722"/>
+        <c:axId val="12640967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,7 +1451,628 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93225008"/>
+        <c:crossAx val="54357118"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>truksta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kardinalumas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.692</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="64070989"/>
+        <c:axId val="69365476"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="64070989"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69365476"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="69365476"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64070989"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moda 1 %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>mrt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>smsa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>rns80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>smsa80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rns</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mrt80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="50366621"/>
+        <c:axId val="18538977"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50366621"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18538977"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="18538977"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50366621"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1197,7 +2119,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1212,11 +2134,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$9</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>kardinalumas</c:v>
+                  <c:v>Modos 2 daznis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1231,6 +2153,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1240,95 +2164,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$10:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>tenure</c:v>
+                  <c:v>mrt</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>med</c:v>
+                  <c:v>smsa</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>tenure80</c:v>
+                  <c:v>rns80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>expr</c:v>
+                  <c:v>smsa80</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>expr80</c:v>
+                  <c:v>rns</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>lw</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>school</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>school80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>kww</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>age</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>age80</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>iq</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>year</c:v>
+                  <c:v>mrt80</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$10:$D$22</c:f>
+              <c:f>Sheet1!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>399</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>734</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1336,11 +2218,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="10253437"/>
-        <c:axId val="18734365"/>
+        <c:axId val="52587788"/>
+        <c:axId val="81440220"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="10253437"/>
+        <c:axId val="52587788"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,14 +2250,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18734365"/>
+        <c:crossAx val="81440220"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18734365"/>
+        <c:axId val="81440220"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,7 +2272,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1412,7 +2294,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10253437"/>
+        <c:crossAx val="52587788"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1459,7 +2341,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1474,11 +2356,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$9</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>min</c:v>
+                  <c:v>Moda 2 %</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1493,6 +2375,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1502,95 +2386,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$10:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>tenure</c:v>
+                  <c:v>mrt</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>med</c:v>
+                  <c:v>smsa</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>tenure80</c:v>
+                  <c:v>rns80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>expr</c:v>
+                  <c:v>smsa80</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>expr80</c:v>
+                  <c:v>rns</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>lw</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>school</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>school80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>kww</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>age</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>age80</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>iq</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>year</c:v>
+                  <c:v>mrt80</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$10:$E$22</c:f>
+              <c:f>Sheet1!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.692</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.605</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>66</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,11 +2440,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="80639968"/>
-        <c:axId val="50223303"/>
+        <c:axId val="51890063"/>
+        <c:axId val="74440977"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80639968"/>
+        <c:axId val="51890063"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1630,14 +2472,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50223303"/>
+        <c:crossAx val="74440977"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50223303"/>
+        <c:axId val="74440977"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,7 +2494,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1674,7 +2516,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80639968"/>
+        <c:crossAx val="51890063"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1721,7 +2563,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1736,11 +2578,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$9</c:f>
+              <c:f>Sheet1!$B$2:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>min</c:v>
+                  <c:v>kardinalumas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1755,6 +2597,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1811,48 +2655,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$10:$E$22</c:f>
+              <c:f>Sheet1!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.692</c:v>
+                  <c:v>734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.605</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>66</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +2704,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="93402767"/>
-        <c:axId val="66633630"/>
+        <c:axId val="5386502"/>
+        <c:axId val="84540542"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93402767"/>
+        <c:axId val="5386502"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1892,14 +2736,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66633630"/>
+        <c:crossAx val="84540542"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66633630"/>
+        <c:axId val="84540542"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1914,7 +2758,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1936,7 +2780,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93402767"/>
+        <c:crossAx val="5386502"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1983,7 +2827,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1998,11 +2842,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$9</c:f>
+              <c:f>Sheet1!$C$2:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>kvantilis pirmas</c:v>
+                  <c:v>min</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2017,6 +2861,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2073,45 +2919,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$10:$G$22</c:f>
+              <c:f>Sheet1!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.692</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.605</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.295</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.392</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.38</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>66</c:v>
@@ -2122,11 +2968,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="45170532"/>
-        <c:axId val="96359208"/>
+        <c:axId val="95847324"/>
+        <c:axId val="49234705"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45170532"/>
+        <c:axId val="95847324"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,14 +3000,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96359208"/>
+        <c:crossAx val="49234705"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96359208"/>
+        <c:axId val="49234705"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,7 +3022,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2198,7 +3044,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45170532"/>
+        <c:crossAx val="95847324"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2245,7 +3091,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2260,11 +3106,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$9</c:f>
+              <c:f>Sheet1!$G$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>kvantilis trecias</c:v>
+                  <c:v>kvantilis pirmas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2279,6 +3125,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2335,48 +3183,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$10:$H$22</c:f>
+              <c:f>Sheet1!$G$10:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.392</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.442</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.677</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,11 +3232,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="62966610"/>
-        <c:axId val="95737326"/>
+        <c:axId val="58924567"/>
+        <c:axId val="73302030"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62966610"/>
+        <c:axId val="58924567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,14 +3264,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95737326"/>
+        <c:crossAx val="73302030"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95737326"/>
+        <c:axId val="73302030"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2438,7 +3286,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2460,7 +3308,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62966610"/>
+        <c:crossAx val="58924567"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2507,7 +3355,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2522,11 +3370,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$9</c:f>
+              <c:f>Sheet1!$H$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mediana</c:v>
+                  <c:v>kvantilis trecias</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2542,6 +3390,7 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2598,48 +3447,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$10:$I$22</c:f>
+              <c:f>Sheet1!$H$10:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.962</c:v>
+                  <c:v>2.442</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.063</c:v>
+                  <c:v>14.677</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.684</c:v>
+                  <c:v>5.991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>104</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>69</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2647,11 +3496,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="76542595"/>
-        <c:axId val="67150735"/>
+        <c:axId val="58276281"/>
+        <c:axId val="95553676"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76542595"/>
+        <c:axId val="58276281"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2679,14 +3528,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67150735"/>
+        <c:crossAx val="95553676"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67150735"/>
+        <c:axId val="95553676"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2701,7 +3550,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2723,7 +3572,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76542595"/>
+        <c:crossAx val="58276281"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2770,7 +3619,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2785,11 +3634,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$9</c:f>
+              <c:f>Sheet1!$I$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>vidurkis</c:v>
+                  <c:v>mediana</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2805,6 +3654,7 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2861,48 +3711,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$10:$J$22</c:f>
+              <c:f>Sheet1!$I$10:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.8311345646438</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.910290237467</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.36279683377309</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.73542875989446</c:v>
+                  <c:v>0.962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.3942612137203</c:v>
+                  <c:v>11.063</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.68673878627969</c:v>
+                  <c:v>5.684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.4050131926121</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.7071240105541</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.5738786279683</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.835092348285</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.0118733509235</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>103.856200527705</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>69.0316622691293</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2910,11 +3760,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="91151578"/>
-        <c:axId val="77725585"/>
+        <c:axId val="23705821"/>
+        <c:axId val="21656684"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91151578"/>
+        <c:axId val="23705821"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2942,14 +3792,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77725585"/>
+        <c:crossAx val="21656684"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77725585"/>
+        <c:axId val="21656684"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2964,7 +3814,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2986,7 +3836,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91151578"/>
+        <c:crossAx val="23705821"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3040,13 +3890,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>451080</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:colOff>450720</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3054,8 +3904,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8346960" y="307080"/>
-        <a:ext cx="5762880" cy="3249000"/>
+        <a:off x="8346960" y="307440"/>
+        <a:ext cx="5762520" cy="3248280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3070,13 +3920,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>615960</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>308160</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:colOff>307800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3084,8 +3934,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14274720" y="296280"/>
-        <a:ext cx="5762880" cy="3249000"/>
+        <a:off x="14274720" y="296640"/>
+        <a:ext cx="5762520" cy="3248280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3099,14 +3949,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>44280</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>495000</xdr:colOff>
+      <xdr:colOff>494640</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3114,8 +3964,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8391240" y="3926160"/>
-        <a:ext cx="5762520" cy="3249000"/>
+        <a:off x="8391240" y="3926520"/>
+        <a:ext cx="5762160" cy="3263760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3130,13 +3980,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>704160</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>396000</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:colOff>395640</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3144,8 +3994,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14362920" y="3841560"/>
-        <a:ext cx="5762520" cy="3249000"/>
+        <a:off x="14362920" y="3841920"/>
+        <a:ext cx="5762160" cy="3263760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3158,15 +4008,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:colOff>1080</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>451440</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3174,8 +4024,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="759240" y="4868280"/>
-        <a:ext cx="5762520" cy="3238200"/>
+        <a:off x="759600" y="4883760"/>
+        <a:ext cx="5762160" cy="3222720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3188,15 +4038,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>25560</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:colOff>25920</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>473400</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3204,8 +4054,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="784080" y="8370720"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="784440" y="8550000"/>
+        <a:ext cx="5759280" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3217,16 +4067,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>714960</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33480</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>407520</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:colOff>484200</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3234,8 +4084,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="714960" y="11980080"/>
-        <a:ext cx="5762880" cy="3238200"/>
+        <a:off x="792000" y="15694200"/>
+        <a:ext cx="5762520" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3248,15 +4098,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>11160</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:colOff>23400</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>462240</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:colOff>474120</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3264,8 +4114,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="769680" y="15588360"/>
-        <a:ext cx="5762880" cy="3238560"/>
+        <a:off x="781920" y="19286640"/>
+        <a:ext cx="5762520" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3278,15 +4128,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>22680</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:colOff>33840</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>473760</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:colOff>484560</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3294,8 +4144,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="781200" y="19239480"/>
-        <a:ext cx="5762880" cy="3238200"/>
+        <a:off x="792360" y="22762080"/>
+        <a:ext cx="5762520" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3308,15 +4158,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>33480</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:colOff>3960</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>484560</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:colOff>451440</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3324,8 +4174,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="792000" y="22838040"/>
-        <a:ext cx="5762880" cy="3238560"/>
+        <a:off x="762480" y="26344080"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3338,15 +4188,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3600</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:colOff>66240</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>451440</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:colOff>516960</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3354,12 +4204,72 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="762120" y="26435160"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="824760" y="12280320"/>
+        <a:ext cx="5762520" cy="3240000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44280</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>132480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495360</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>149400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="802800" y="30673440"/>
+        <a:ext cx="5762880" cy="3240000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>2880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>451440</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>20160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="758880" y="34529040"/>
+        <a:ext cx="5762880" cy="3240360"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3373,10 +4283,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:W202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A86" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P109" activeCellId="0" sqref="P109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F205" activeCellId="0" sqref="F205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3415,11 +4325,12 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="1"/>
+      <c r="S1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
@@ -3451,7 +4362,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>14</v>
       </c>
@@ -3483,7 +4394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>15</v>
       </c>
@@ -3515,7 +4426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>16</v>
       </c>
@@ -3547,7 +4458,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>17</v>
       </c>
@@ -3579,7 +4490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>18</v>
       </c>
@@ -3611,6 +4522,7 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>0</v>
@@ -4026,10 +4938,18 @@
       <c r="J21" s="0" t="n">
         <v>103.856200527705</v>
       </c>
+      <c r="N21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="V21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>758</v>
@@ -4060,11 +4980,16 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="E25" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1" t="s">
-        <v>38</v>
+      <c r="B27" s="1"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4080,8 +5005,95 @@
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104" s="5"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D122" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E122" s="5"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D141" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E141" s="5"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D160" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B202:G202"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
